--- a/biology/Botanique/Huperzia_lucidula/Huperzia_lucidula.xlsx
+++ b/biology/Botanique/Huperzia_lucidula/Huperzia_lucidula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Huperzie brillante, Lycopode brillant
-Huperzia lucidula, communément appelé Huperzie brillante[3] ou Lycopode brillant[3], est une espèce de plantes de la famille des Huperziaceae. Elle est répandue en Amérique du nord, de l'est du Canada au sud-est des États-unis.
+Huperzia lucidula, communément appelé Huperzie brillante ou Lycopode brillant, est une espèce de plantes de la famille des Huperziaceae. Elle est répandue en Amérique du nord, de l'est du Canada au sud-est des États-unis.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 mars 2022)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 mars 2022) :
 variété Huperzia lucidula var. asiatica Ching
 variété Huperzia lucidula var. lucidula</t>
         </is>
